--- a/biology/Médecine/Cross_match/Cross_match.xlsx
+++ b/biology/Médecine/Cross_match/Cross_match.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cross match est une étude de compatibilité réalisée systématiquement pour prévenir le phénomène de rejet de greffe hyperaïgu.
 En pratique, il s'agit de prélever le sérum du receveur et les lymphocytes ainsi que le complément du donneur.
